--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-2/variables/</t>
+          <t>http://purl.org/m4m-dk-3/variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-2/variables/</t>
+          <t>http://purl.org/m4m-dk-3/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-3/variables/</t>
+          <t>http://purl.org/m4m-dk-2/variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-3/variables/</t>
+          <t>http://purl.org/m4m-dk-2/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
